--- a/Country_Data/Italy_Tourism.xlsx
+++ b/Country_Data/Italy_Tourism.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Easy_Jet\Stage3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Sufficient-strategies-for-travel-quarantine-and-testing\Country_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F3C293-7C8E-4B6E-8064-115B051C7FAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE24425D-0B87-4ABE-A83D-7B1F654E7720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25005" yWindow="2580" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Country of origin - prov" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="83">
   <si>
     <t>Sorry, the query is too large to fit into the Excel cell. You will not be able to update your table with the .Stat Populator.</t>
   </si>
@@ -277,13 +277,16 @@
   </si>
   <si>
     <t>Republic of Ireland</t>
+  </si>
+  <si>
+    <t>Occupancy in collective tourist accomodation - yearly data (Country of origin)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -471,6 +474,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="38">
@@ -896,7 +905,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -923,20 +932,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -953,9 +950,22 @@
     <xf numFmtId="0" fontId="21" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1314,7 +1324,7 @@
   <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="C3" sqref="C3:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1336,124 +1346,127 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="21" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="14"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="20"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="14"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="20"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="14"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="20"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="17" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="19"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="17" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="17" t="s">
+      <c r="F7" s="15"/>
+      <c r="G7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="17" t="s">
+      <c r="H7" s="15"/>
+      <c r="I7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="17" t="s">
+      <c r="J7" s="15"/>
+      <c r="K7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="17" t="s">
+      <c r="L7" s="15"/>
+      <c r="M7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="19"/>
+      <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1976,7 +1989,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="10" t="s">
         <v>81</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -4226,6 +4239,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:N5"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:H6"/>
@@ -4237,18 +4256,12 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:N7"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:N5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://dati.istat.it/OECDStat_Metadata/ShowMetadata.ashx?Dataset=DCSC_TUR&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A71" r:id="rId2" display="http://dativ7b.istat.it//index.aspx?DatasetCode=DCSC_TUR" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>